--- a/intergrate/dist/intergrate/Result/최종 결과/2022_03_29.xlsx
+++ b/intergrate/dist/intergrate/Result/최종 결과/2022_03_29.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,376 +737,412 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="inlineStr"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="14" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="15" t="n"/>
+      <c r="A13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>양상추</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" s="9" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr"/>
-      <c r="B14" s="14" t="n"/>
-      <c r="C14" s="14" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="14" t="n"/>
-      <c r="F14" s="15" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>토마토케찹</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="inlineStr"/>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="14" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="14" t="n"/>
-      <c r="F15" s="15" t="n"/>
+      <c r="A15" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>식빵</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>조각</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>양상추</t>
+          <t>레몬</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>0.62</v>
       </c>
       <c r="F16" s="9" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>토마토케찹</t>
+          <t>다시백</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F17" s="9" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>식빵</t>
+          <t>식용유</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>조각</t>
+          <t>mL</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="F18" s="9" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>레몬</t>
+          <t>마늘</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>쪽</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="F19" s="9" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>다시백</t>
+          <t>파슬리</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>줄기</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="9" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>식용유</t>
+          <t>치즈</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mL</t>
+          <t>장</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>마늘</t>
+          <t>토마토 페이스트</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>쪽</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F22" s="9" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>파슬리</t>
+          <t>월계수잎</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>줄기</t>
+          <t>잎</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="9" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>치즈</t>
+          <t>생크림</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>장</t>
+          <t>mL</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F24" s="9" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>토마토 페이스트</t>
+          <t>햄버거 빵</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F25" s="9" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>월계수잎</t>
+          <t>소뼈</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>잎</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F26" s="9" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>생크림</t>
+          <t>양송이</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>mL</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F27" s="9" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>햄버거 빵</t>
+          <t>다임</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="9" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>소뼈</t>
+          <t>식초</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>mL</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F29" s="9" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>양송이</t>
+          <t>사과</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F30" s="9" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>다임</t>
+          <t>토마토</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="F31" s="9" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>식초</t>
+          <t>검은후춧가루</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>mL</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F32" s="9" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>사과</t>
+          <t>감자</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1122,51 +1158,51 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>토마토</t>
+          <t>빵가루</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.25</v>
+        <v>30</v>
       </c>
       <c r="F34" s="9" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>검은후춧가루</t>
+          <t>새우</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>마리</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" s="9" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>감자</t>
+          <t>정향</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1182,11 +1218,11 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>빵가루</t>
+          <t>토마토케첩</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1196,137 +1232,137 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F37" s="9" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>새우</t>
+          <t>검은통후추</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>마리</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" s="9" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>정향</t>
+          <t>면실</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F39" s="9" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>토마토케첩</t>
+          <t>청피망</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>0.17</v>
       </c>
       <c r="F40" s="9" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>검은통후추</t>
+          <t>토마토(캔)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F41" s="9" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>면실</t>
+          <t>호두</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>개</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F42" s="9" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>청피망</t>
+          <t>셀러리</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>g</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.17</v>
+        <v>135</v>
       </c>
       <c r="F43" s="9" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>토마토(캔)</t>
+          <t>흰후춧가루</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1336,17 +1372,17 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F44" s="9" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="7" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>호두</t>
+          <t>달걀</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1356,17 +1392,17 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F45" s="9" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>셀러리</t>
+          <t>마요네즈</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1376,17 +1412,17 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F46" s="9" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>흰후춧가루</t>
+          <t>소고기</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1396,89 +1432,45 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="F47" s="9" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n">
-        <v>33</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>달걀</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>10</v>
-      </c>
-      <c r="F48" s="9" t="inlineStr"/>
+      <c r="A48" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="B48" s="11" t="inlineStr">
+        <is>
+          <t>베이컨</t>
+        </is>
+      </c>
+      <c r="C48" s="11" t="inlineStr"/>
+      <c r="D48" s="11" t="inlineStr">
+        <is>
+          <t>조각</t>
+        </is>
+      </c>
+      <c r="E48" s="11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F48" s="12" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>마요네즈</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>140</v>
-      </c>
-      <c r="F49" s="9" t="inlineStr"/>
+      <c r="A49" s="13" t="inlineStr"/>
+      <c r="B49" s="14" t="n"/>
+      <c r="C49" s="14" t="n"/>
+      <c r="D49" s="14" t="n"/>
+      <c r="E49" s="14" t="n"/>
+      <c r="F49" s="15" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>소고기</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>160</v>
-      </c>
-      <c r="F50" s="9" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="B51" s="11" t="inlineStr">
-        <is>
-          <t>베이컨</t>
-        </is>
-      </c>
-      <c r="C51" s="11" t="inlineStr"/>
-      <c r="D51" s="11" t="inlineStr">
-        <is>
-          <t>조각</t>
-        </is>
-      </c>
-      <c r="E51" s="11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F51" s="12" t="inlineStr"/>
+      <c r="A50" s="13" t="inlineStr"/>
+      <c r="B50" s="14" t="n"/>
+      <c r="C50" s="14" t="n"/>
+      <c r="D50" s="14" t="n"/>
+      <c r="E50" s="14" t="n"/>
+      <c r="F50" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
